--- a/2022/Symphony/February/12.02.2022/MC Bank Statement February-2022.xlsx
+++ b/2022/Symphony/February/12.02.2022/MC Bank Statement February-2022.xlsx
@@ -16,7 +16,8 @@
     <sheet name="Feb-2022" sheetId="16" r:id="rId2"/>
     <sheet name="Expence" sheetId="15" r:id="rId3"/>
     <sheet name="Balance Transfer" sheetId="14" r:id="rId4"/>
-    <sheet name="CAPITAL" sheetId="10" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId5"/>
+    <sheet name="CAPITAL" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="228">
   <si>
     <t>Date</t>
   </si>
@@ -741,6 +742,9 @@
   </si>
   <si>
     <t>SH Mobile</t>
+  </si>
+  <si>
+    <t>12.02.2022 Update Due List for Bagha Arani</t>
   </si>
 </sst>
 </file>
@@ -2084,7 +2088,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="353">
+  <cellXfs count="355">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3112,6 +3116,12 @@
     <xf numFmtId="0" fontId="7" fillId="43" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -5990,7 +6000,7 @@
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
@@ -9166,11 +9176,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9185,6 +9190,11 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9198,8 +9208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33624,12 +33634,198 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" customHeight="1">
+      <c r="A1" s="354" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="354"/>
+      <c r="C1" s="354"/>
+      <c r="D1" s="354"/>
+      <c r="E1" s="354"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="353" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="353" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="353" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="353" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="353" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1">
+      <c r="A3" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="31">
+        <v>78750</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1">
+      <c r="A4" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="31">
+        <v>10915</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1">
+      <c r="A5" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="31">
+        <v>20000</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1">
+      <c r="A6" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="31">
+        <v>11000</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1">
+      <c r="A7" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="31">
+        <v>18960</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1">
+      <c r="A8" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="31">
+        <v>19370</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1">
+      <c r="A9" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="31">
+        <v>22000</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1">
+      <c r="A10" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31">
+        <v>29840</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.75" bottom="0" header="0.3" footer="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
